--- a/项目/中餐厅设备点检/博智林店中餐厅设备IP地址需求表V1.1 200418 .xlsx
+++ b/项目/中餐厅设备点检/博智林店中餐厅设备IP地址需求表V1.1 200418 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -4131,10 +4131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -4189,8 +4189,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4199,6 +4213,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4213,7 +4273,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4227,70 +4287,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4310,7 +4311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4319,13 +4319,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4359,12 +4359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4430,13 +4424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4454,73 +4484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4532,7 +4502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4550,7 +4520,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4562,19 +4556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4743,16 +4737,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4772,17 +4772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4805,23 +4805,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4836,16 +4821,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4854,16 +4848,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4873,116 +4867,116 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5051,63 +5045,57 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5117,52 +5105,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5171,13 +5159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5531,8 +5519,8 @@
   <sheetPr/>
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -5569,17 +5557,17 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" ht="20.4" customHeight="1" spans="1:19">
       <c r="A2" s="7" t="s">
@@ -5604,13 +5592,13 @@
       <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="13" t="s">
@@ -5631,10 +5619,10 @@
       <c r="Q2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5668,13 +5656,13 @@
       <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="36">
         <v>5001</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -5713,11 +5701,11 @@
         <v>16</v>
       </c>
       <c r="K4" s="20"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="25" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="36">
         <v>5002</v>
       </c>
       <c r="O4" s="19" t="s">
@@ -5747,7 +5735,7 @@
       <c r="F5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="22" t="s">
@@ -5758,11 +5746,11 @@
         <v>16</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="25" t="s">
+      <c r="L5" s="35"/>
+      <c r="M5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="36">
         <v>5003</v>
       </c>
       <c r="O5" s="19" t="s">
@@ -5801,11 +5789,11 @@
         <v>16</v>
       </c>
       <c r="K6" s="20"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="25" t="s">
+      <c r="L6" s="35"/>
+      <c r="M6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="36">
         <v>5004</v>
       </c>
       <c r="O6" s="19" t="s">
@@ -5825,14 +5813,14 @@
     <row r="7" customHeight="1" spans="1:19">
       <c r="A7" s="20"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="18">
         <v>4001</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -5846,11 +5834,11 @@
         <v>16</v>
       </c>
       <c r="K7" s="20"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="25" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="36">
         <v>5005</v>
       </c>
       <c r="O7" s="19" t="s">
@@ -5889,11 +5877,11 @@
         <v>16</v>
       </c>
       <c r="K8" s="20"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="25" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="36">
         <v>5006</v>
       </c>
       <c r="O8" s="19" t="s">
@@ -5916,10 +5904,10 @@
       <c r="C9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>2011</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>2012</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -5936,11 +5924,11 @@
         <v>16</v>
       </c>
       <c r="K9" s="20"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="25" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="36">
         <v>5007</v>
       </c>
       <c r="O9" s="19" t="s">
@@ -5960,7 +5948,7 @@
     <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="20"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="18"/>
@@ -5979,11 +5967,11 @@
         <v>16</v>
       </c>
       <c r="K10" s="20"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="25" t="s">
+      <c r="L10" s="35"/>
+      <c r="M10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="36">
         <v>5008</v>
       </c>
       <c r="O10" s="19" t="s">
@@ -6003,7 +5991,7 @@
     <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="20"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="18"/>
@@ -6022,11 +6010,11 @@
         <v>16</v>
       </c>
       <c r="K11" s="20"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="35"/>
+      <c r="M11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="36">
         <v>5009</v>
       </c>
       <c r="O11" s="19" t="s">
@@ -6046,7 +6034,7 @@
     <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="20"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="18"/>
@@ -6065,11 +6053,11 @@
         <v>16</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="35"/>
+      <c r="M12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="36">
         <v>5010</v>
       </c>
       <c r="O12" s="19" t="s">
@@ -6110,11 +6098,11 @@
         <v>16</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="25" t="s">
+      <c r="L13" s="35"/>
+      <c r="M13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="36">
         <v>5011</v>
       </c>
       <c r="O13" s="19" t="s">
@@ -6153,11 +6141,11 @@
         <v>16</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="25" t="s">
+      <c r="L14" s="35"/>
+      <c r="M14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="36">
         <v>5012</v>
       </c>
       <c r="O14" s="19" t="s">
@@ -6198,11 +6186,11 @@
         <v>16</v>
       </c>
       <c r="K15" s="20"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="25" t="s">
+      <c r="L15" s="35"/>
+      <c r="M15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="36">
         <v>5013</v>
       </c>
       <c r="O15" s="19" t="s">
@@ -6241,11 +6229,11 @@
         <v>16</v>
       </c>
       <c r="K16" s="20"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="25" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="36">
         <v>5014</v>
       </c>
       <c r="O16" s="19" t="s">
@@ -6265,32 +6253,32 @@
     <row r="17" ht="14.4" customHeight="1" spans="1:19">
       <c r="A17" s="20"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>4002</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="32" t="s">
+      <c r="G17" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="20"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="25" t="s">
+      <c r="L17" s="35"/>
+      <c r="M17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="36">
         <v>5015</v>
       </c>
       <c r="O17" s="19" t="s">
@@ -6329,11 +6317,11 @@
         <v>16</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="25" t="s">
+      <c r="L18" s="35"/>
+      <c r="M18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="36">
         <v>5016</v>
       </c>
       <c r="O18" s="19" t="s">
@@ -6376,11 +6364,11 @@
         <v>16</v>
       </c>
       <c r="K19" s="20"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="25" t="s">
+      <c r="L19" s="35"/>
+      <c r="M19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="36">
         <v>5017</v>
       </c>
       <c r="O19" s="19" t="s">
@@ -6400,7 +6388,7 @@
     <row r="20" ht="14.4" customHeight="1" spans="1:19">
       <c r="A20" s="20"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="18"/>
@@ -6419,11 +6407,11 @@
         <v>16</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="25" t="s">
+      <c r="L20" s="35"/>
+      <c r="M20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="36">
         <v>5018</v>
       </c>
       <c r="O20" s="19" t="s">
@@ -6443,7 +6431,7 @@
     <row r="21" ht="14.4" customHeight="1" spans="1:19">
       <c r="A21" s="20"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="18"/>
@@ -6462,11 +6450,11 @@
         <v>16</v>
       </c>
       <c r="K21" s="20"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="25" t="s">
+      <c r="L21" s="35"/>
+      <c r="M21" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="36">
         <v>5019</v>
       </c>
       <c r="O21" s="19" t="s">
@@ -6486,7 +6474,7 @@
     <row r="22" ht="14.4" customHeight="1" spans="1:19">
       <c r="A22" s="20"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="18"/>
@@ -6505,11 +6493,11 @@
         <v>16</v>
       </c>
       <c r="K22" s="20"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="25" t="s">
+      <c r="L22" s="35"/>
+      <c r="M22" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="36">
         <v>5020</v>
       </c>
       <c r="O22" s="19" t="s">
@@ -6550,11 +6538,11 @@
         <v>16</v>
       </c>
       <c r="K23" s="20"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="25" t="s">
+      <c r="L23" s="35"/>
+      <c r="M23" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="36">
         <v>5021</v>
       </c>
       <c r="O23" s="19" t="s">
@@ -6593,11 +6581,11 @@
         <v>16</v>
       </c>
       <c r="K24" s="20"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="25" t="s">
+      <c r="L24" s="35"/>
+      <c r="M24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="36">
         <v>5022</v>
       </c>
       <c r="O24" s="19" t="s">
@@ -6638,11 +6626,11 @@
         <v>16</v>
       </c>
       <c r="K25" s="20"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="25" t="s">
+      <c r="L25" s="35"/>
+      <c r="M25" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="36">
         <v>5023</v>
       </c>
       <c r="O25" s="19" t="s">
@@ -6681,11 +6669,11 @@
         <v>16</v>
       </c>
       <c r="K26" s="20"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="25" t="s">
+      <c r="L26" s="35"/>
+      <c r="M26" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="19" t="s">
         <v>111</v>
       </c>
@@ -6710,7 +6698,7 @@
         <v>4003</v>
       </c>
       <c r="E27" s="18"/>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="14" t="s">
@@ -6724,11 +6712,11 @@
         <v>16</v>
       </c>
       <c r="K27" s="20"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="25" t="s">
+      <c r="L27" s="35"/>
+      <c r="M27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="37"/>
       <c r="O27" s="19" t="s">
         <v>115</v>
       </c>
@@ -6765,11 +6753,11 @@
         <v>16</v>
       </c>
       <c r="K28" s="20"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="25" t="s">
+      <c r="L28" s="35"/>
+      <c r="M28" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="N28" s="39"/>
+      <c r="N28" s="37"/>
       <c r="O28" s="19" t="s">
         <v>119</v>
       </c>
@@ -6810,11 +6798,11 @@
         <v>16</v>
       </c>
       <c r="K29" s="20"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="25" t="s">
+      <c r="L29" s="35"/>
+      <c r="M29" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="19" t="s">
         <v>123</v>
       </c>
@@ -6832,7 +6820,7 @@
     <row r="30" customHeight="1" spans="1:19">
       <c r="A30" s="20"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="18"/>
@@ -6851,11 +6839,11 @@
         <v>16</v>
       </c>
       <c r="K30" s="20"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="25" t="s">
+      <c r="L30" s="35"/>
+      <c r="M30" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N30" s="39"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="19" t="s">
         <v>126</v>
       </c>
@@ -6873,7 +6861,7 @@
     <row r="31" customHeight="1" spans="1:19">
       <c r="A31" s="20"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="18"/>
@@ -6892,11 +6880,11 @@
         <v>16</v>
       </c>
       <c r="K31" s="20"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="25" t="s">
+      <c r="L31" s="35"/>
+      <c r="M31" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N31" s="39"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="19" t="s">
         <v>129</v>
       </c>
@@ -6914,7 +6902,7 @@
     <row r="32" customHeight="1" spans="1:19">
       <c r="A32" s="20"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="18"/>
@@ -6933,11 +6921,11 @@
         <v>16</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="25" t="s">
+      <c r="L32" s="35"/>
+      <c r="M32" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="39"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="19" t="s">
         <v>131</v>
       </c>
@@ -6976,11 +6964,11 @@
         <v>16</v>
       </c>
       <c r="K33" s="20"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="25" t="s">
+      <c r="L33" s="35"/>
+      <c r="M33" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N33" s="39"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="19" t="s">
         <v>134</v>
       </c>
@@ -7017,11 +7005,11 @@
         <v>16</v>
       </c>
       <c r="K34" s="20"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="25" t="s">
+      <c r="L34" s="35"/>
+      <c r="M34" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N34" s="39"/>
+      <c r="N34" s="37"/>
       <c r="O34" s="19" t="s">
         <v>137</v>
       </c>
@@ -7060,11 +7048,11 @@
         <v>16</v>
       </c>
       <c r="K35" s="20"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="25" t="s">
+      <c r="L35" s="35"/>
+      <c r="M35" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N35" s="39"/>
+      <c r="N35" s="37"/>
       <c r="O35" s="19" t="s">
         <v>140</v>
       </c>
@@ -7101,11 +7089,11 @@
         <v>16</v>
       </c>
       <c r="K36" s="20"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="25" t="s">
+      <c r="L36" s="35"/>
+      <c r="M36" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N36" s="39"/>
+      <c r="N36" s="37"/>
       <c r="O36" s="19" t="s">
         <v>143</v>
       </c>
@@ -7123,32 +7111,32 @@
     <row r="37" customHeight="1" spans="1:19">
       <c r="A37" s="20"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>4004</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="32" t="s">
+      <c r="G37" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K37" s="20"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="25" t="s">
+      <c r="L37" s="35"/>
+      <c r="M37" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N37" s="39"/>
+      <c r="N37" s="37"/>
       <c r="O37" s="19" t="s">
         <v>146</v>
       </c>
@@ -7185,24 +7173,24 @@
         <v>16</v>
       </c>
       <c r="K38" s="20"/>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="41" t="s">
+      <c r="M38" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N38" s="41"/>
-      <c r="O38" s="26" t="s">
+      <c r="N38" s="39"/>
+      <c r="O38" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="P38" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q38" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
+      <c r="P38" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
     </row>
     <row r="39" ht="14.4" customHeight="1" spans="1:19">
       <c r="A39" s="20"/>
@@ -7230,27 +7218,27 @@
         <v>16</v>
       </c>
       <c r="K39" s="20"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="41" t="s">
+      <c r="L39" s="38"/>
+      <c r="M39" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N39" s="41"/>
-      <c r="O39" s="26" t="s">
+      <c r="N39" s="39"/>
+      <c r="O39" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="P39" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q39" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
+      <c r="P39" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
     </row>
     <row r="40" ht="14.4" customHeight="1" spans="1:19">
       <c r="A40" s="20"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>154</v>
       </c>
       <c r="D40" s="18"/>
@@ -7269,27 +7257,27 @@
         <v>16</v>
       </c>
       <c r="K40" s="20"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="41" t="s">
+      <c r="L40" s="38"/>
+      <c r="M40" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="26" t="s">
+      <c r="N40" s="39"/>
+      <c r="O40" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="P40" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q40" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
+      <c r="P40" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
     </row>
     <row r="41" ht="14.4" customHeight="1" spans="1:19">
       <c r="A41" s="20"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D41" s="18"/>
@@ -7308,27 +7296,27 @@
         <v>16</v>
       </c>
       <c r="K41" s="20"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41" t="s">
+      <c r="L41" s="38"/>
+      <c r="M41" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="26" t="s">
+      <c r="N41" s="39"/>
+      <c r="O41" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="P41" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q41" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
+      <c r="P41" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
     </row>
     <row r="42" ht="14.4" customHeight="1" spans="1:19">
       <c r="A42" s="20"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D42" s="18"/>
@@ -7347,22 +7335,22 @@
         <v>16</v>
       </c>
       <c r="K42" s="20"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="41" t="s">
+      <c r="L42" s="38"/>
+      <c r="M42" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N42" s="41"/>
-      <c r="O42" s="26" t="s">
+      <c r="N42" s="39"/>
+      <c r="O42" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="P42" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q42" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
+      <c r="P42" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
     </row>
     <row r="43" customHeight="1" spans="1:19">
       <c r="A43" s="20"/>
@@ -7388,22 +7376,22 @@
         <v>16</v>
       </c>
       <c r="K43" s="20"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="41" t="s">
+      <c r="L43" s="38"/>
+      <c r="M43" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N43" s="41"/>
-      <c r="O43" s="26" t="s">
+      <c r="N43" s="39"/>
+      <c r="O43" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="P43" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q43" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
+      <c r="P43" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
     </row>
     <row r="44" customHeight="1" spans="1:19">
       <c r="A44" s="20"/>
@@ -7427,22 +7415,22 @@
         <v>16</v>
       </c>
       <c r="K44" s="20"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="41" t="s">
+      <c r="L44" s="38"/>
+      <c r="M44" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N44" s="41"/>
-      <c r="O44" s="26" t="s">
+      <c r="N44" s="39"/>
+      <c r="O44" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="P44" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q44" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
+      <c r="P44" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
     </row>
     <row r="45" customHeight="1" spans="1:19">
       <c r="A45" s="20"/>
@@ -7468,22 +7456,22 @@
         <v>16</v>
       </c>
       <c r="K45" s="20"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41" t="s">
+      <c r="L45" s="38"/>
+      <c r="M45" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N45" s="41"/>
-      <c r="O45" s="26" t="s">
+      <c r="N45" s="39"/>
+      <c r="O45" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="P45" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q45" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
+      <c r="P45" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
     </row>
     <row r="46" customHeight="1" spans="1:19">
       <c r="A46" s="20"/>
@@ -7507,22 +7495,22 @@
         <v>16</v>
       </c>
       <c r="K46" s="20"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="41" t="s">
+      <c r="L46" s="38"/>
+      <c r="M46" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N46" s="41"/>
-      <c r="O46" s="26" t="s">
+      <c r="N46" s="39"/>
+      <c r="O46" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="P46" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q46" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
+      <c r="P46" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
     </row>
     <row r="47" customHeight="1" spans="1:19">
       <c r="A47" s="20"/>
@@ -7534,7 +7522,7 @@
         <v>4005</v>
       </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="25" t="s">
         <v>175</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -7548,22 +7536,22 @@
         <v>16</v>
       </c>
       <c r="K47" s="20"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="41" t="s">
+      <c r="L47" s="38"/>
+      <c r="M47" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N47" s="41"/>
-      <c r="O47" s="26" t="s">
+      <c r="N47" s="39"/>
+      <c r="O47" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="P47" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q47" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
+      <c r="P47" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
     </row>
     <row r="48" customHeight="1" spans="1:19">
       <c r="A48" s="20"/>
@@ -7587,22 +7575,22 @@
         <v>16</v>
       </c>
       <c r="K48" s="20"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="41" t="s">
+      <c r="L48" s="38"/>
+      <c r="M48" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N48" s="41"/>
-      <c r="O48" s="26" t="s">
+      <c r="N48" s="39"/>
+      <c r="O48" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="P48" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q48" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
+      <c r="P48" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
     </row>
     <row r="49" customHeight="1" spans="1:19">
       <c r="A49" s="20"/>
@@ -7630,27 +7618,27 @@
         <v>16</v>
       </c>
       <c r="K49" s="20"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="41" t="s">
+      <c r="L49" s="38"/>
+      <c r="M49" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="26" t="s">
+      <c r="N49" s="39"/>
+      <c r="O49" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="P49" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q49" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
+      <c r="P49" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
     </row>
     <row r="50" customHeight="1" spans="1:19">
       <c r="A50" s="20"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="24" t="s">
         <v>183</v>
       </c>
       <c r="D50" s="18"/>
@@ -7669,27 +7657,27 @@
         <v>16</v>
       </c>
       <c r="K50" s="20"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="41" t="s">
+      <c r="L50" s="38"/>
+      <c r="M50" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N50" s="41"/>
-      <c r="O50" s="26" t="s">
+      <c r="N50" s="39"/>
+      <c r="O50" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="P50" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q50" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
+      <c r="P50" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
     </row>
     <row r="51" customHeight="1" spans="1:19">
       <c r="A51" s="20"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>186</v>
       </c>
       <c r="D51" s="18"/>
@@ -7708,27 +7696,27 @@
         <v>16</v>
       </c>
       <c r="K51" s="20"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="41" t="s">
+      <c r="L51" s="38"/>
+      <c r="M51" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N51" s="41"/>
-      <c r="O51" s="26" t="s">
+      <c r="N51" s="39"/>
+      <c r="O51" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="P51" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q51" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
+      <c r="P51" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
     </row>
     <row r="52" customHeight="1" spans="1:19">
       <c r="A52" s="20"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="18"/>
@@ -7747,22 +7735,22 @@
         <v>16</v>
       </c>
       <c r="K52" s="20"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="41" t="s">
+      <c r="L52" s="38"/>
+      <c r="M52" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N52" s="41"/>
-      <c r="O52" s="26" t="s">
+      <c r="N52" s="39"/>
+      <c r="O52" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="P52" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q52" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
+      <c r="P52" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
     </row>
     <row r="53" customHeight="1" spans="1:19">
       <c r="A53" s="20"/>
@@ -7788,22 +7776,22 @@
         <v>16</v>
       </c>
       <c r="K53" s="20"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="41" t="s">
+      <c r="L53" s="38"/>
+      <c r="M53" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N53" s="41"/>
-      <c r="O53" s="26" t="s">
+      <c r="N53" s="39"/>
+      <c r="O53" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="P53" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q53" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
+      <c r="P53" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
     </row>
     <row r="54" customHeight="1" spans="1:19">
       <c r="A54" s="20"/>
@@ -7827,22 +7815,22 @@
         <v>16</v>
       </c>
       <c r="K54" s="20"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="41" t="s">
+      <c r="L54" s="38"/>
+      <c r="M54" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N54" s="41"/>
-      <c r="O54" s="26" t="s">
+      <c r="N54" s="39"/>
+      <c r="O54" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="P54" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q54" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
+      <c r="P54" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q54" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
     </row>
     <row r="55" customHeight="1" spans="1:19">
       <c r="A55" s="20"/>
@@ -7868,22 +7856,22 @@
         <v>16</v>
       </c>
       <c r="K55" s="20"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="41" t="s">
+      <c r="L55" s="38"/>
+      <c r="M55" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N55" s="41"/>
-      <c r="O55" s="26" t="s">
+      <c r="N55" s="39"/>
+      <c r="O55" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="P55" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q55" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
+      <c r="P55" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
     </row>
     <row r="56" customHeight="1" spans="1:19">
       <c r="A56" s="20"/>
@@ -7907,63 +7895,63 @@
         <v>16</v>
       </c>
       <c r="K56" s="20"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="41" t="s">
+      <c r="L56" s="38"/>
+      <c r="M56" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N56" s="41"/>
-      <c r="O56" s="26" t="s">
+      <c r="N56" s="39"/>
+      <c r="O56" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="P56" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q56" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
+      <c r="P56" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
     </row>
     <row r="57" customHeight="1" spans="1:19">
       <c r="A57" s="20"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>4006</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30" t="s">
+      <c r="E57" s="28"/>
+      <c r="F57" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G57" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="32" t="s">
+      <c r="G57" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K57" s="20"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="41" t="s">
+      <c r="L57" s="38"/>
+      <c r="M57" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N57" s="41"/>
-      <c r="O57" s="26" t="s">
+      <c r="N57" s="39"/>
+      <c r="O57" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="P57" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q57" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
+      <c r="P57" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
     </row>
     <row r="58" ht="14.4" customHeight="1" spans="1:19">
       <c r="A58" s="20"/>
@@ -7987,22 +7975,22 @@
         <v>16</v>
       </c>
       <c r="K58" s="20"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="41" t="s">
+      <c r="L58" s="38"/>
+      <c r="M58" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N58" s="41"/>
-      <c r="O58" s="26" t="s">
+      <c r="N58" s="39"/>
+      <c r="O58" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="P58" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q58" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
+      <c r="P58" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q58" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
     </row>
     <row r="59" ht="14.4" customHeight="1" spans="1:19">
       <c r="A59" s="20"/>
@@ -8030,27 +8018,27 @@
         <v>16</v>
       </c>
       <c r="K59" s="20"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="41" t="s">
+      <c r="L59" s="38"/>
+      <c r="M59" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N59" s="41"/>
-      <c r="O59" s="26" t="s">
+      <c r="N59" s="39"/>
+      <c r="O59" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="P59" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q59" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
+      <c r="P59" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q59" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
     </row>
     <row r="60" ht="14.4" customHeight="1" spans="1:19">
       <c r="A60" s="20"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>212</v>
       </c>
       <c r="D60" s="18"/>
@@ -8069,27 +8057,27 @@
         <v>16</v>
       </c>
       <c r="K60" s="20"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="41" t="s">
+      <c r="L60" s="38"/>
+      <c r="M60" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N60" s="41"/>
-      <c r="O60" s="26" t="s">
+      <c r="N60" s="39"/>
+      <c r="O60" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="P60" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q60" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
+      <c r="P60" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q60" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
     </row>
     <row r="61" ht="14.4" customHeight="1" spans="1:19">
       <c r="A61" s="20"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>215</v>
       </c>
       <c r="D61" s="18"/>
@@ -8108,27 +8096,27 @@
         <v>16</v>
       </c>
       <c r="K61" s="20"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="41" t="s">
+      <c r="L61" s="38"/>
+      <c r="M61" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N61" s="41"/>
-      <c r="O61" s="26" t="s">
+      <c r="N61" s="39"/>
+      <c r="O61" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="P61" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q61" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
+      <c r="P61" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q61" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
     </row>
     <row r="62" ht="14.4" customHeight="1" spans="1:19">
       <c r="A62" s="20"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D62" s="18"/>
@@ -8147,22 +8135,22 @@
         <v>16</v>
       </c>
       <c r="K62" s="20"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="41" t="s">
+      <c r="L62" s="38"/>
+      <c r="M62" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N62" s="41"/>
-      <c r="O62" s="26" t="s">
+      <c r="N62" s="39"/>
+      <c r="O62" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="P62" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q62" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
+      <c r="P62" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q62" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
     </row>
     <row r="63" customHeight="1" spans="1:19">
       <c r="A63" s="20"/>
@@ -8188,22 +8176,22 @@
         <v>16</v>
       </c>
       <c r="K63" s="20"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="41" t="s">
+      <c r="L63" s="38"/>
+      <c r="M63" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N63" s="41"/>
-      <c r="O63" s="26" t="s">
+      <c r="N63" s="39"/>
+      <c r="O63" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="P63" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q63" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
+      <c r="P63" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
     </row>
     <row r="64" customHeight="1" spans="1:19">
       <c r="A64" s="20"/>
@@ -8227,22 +8215,22 @@
         <v>16</v>
       </c>
       <c r="K64" s="20"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="41" t="s">
+      <c r="L64" s="38"/>
+      <c r="M64" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N64" s="41"/>
-      <c r="O64" s="26" t="s">
+      <c r="N64" s="39"/>
+      <c r="O64" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="P64" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q64" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
+      <c r="P64" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q64" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
     </row>
     <row r="65" customHeight="1" spans="1:19">
       <c r="A65" s="20"/>
@@ -8268,22 +8256,22 @@
         <v>16</v>
       </c>
       <c r="K65" s="20"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="41" t="s">
+      <c r="L65" s="38"/>
+      <c r="M65" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N65" s="41"/>
-      <c r="O65" s="26" t="s">
+      <c r="N65" s="39"/>
+      <c r="O65" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="P65" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q65" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
+      <c r="P65" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
     </row>
     <row r="66" customHeight="1" spans="1:19">
       <c r="A66" s="20"/>
@@ -8307,22 +8295,22 @@
         <v>16</v>
       </c>
       <c r="K66" s="20"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="41" t="s">
+      <c r="L66" s="38"/>
+      <c r="M66" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N66" s="41"/>
-      <c r="O66" s="26" t="s">
+      <c r="N66" s="39"/>
+      <c r="O66" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="P66" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q66" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
+      <c r="P66" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
     </row>
     <row r="67" customHeight="1" spans="1:19">
       <c r="A67" s="20"/>
@@ -8334,7 +8322,7 @@
         <v>4007</v>
       </c>
       <c r="E67" s="18"/>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="25" t="s">
         <v>233</v>
       </c>
       <c r="G67" s="14" t="s">
@@ -8348,22 +8336,22 @@
         <v>16</v>
       </c>
       <c r="K67" s="20"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="41" t="s">
+      <c r="L67" s="38"/>
+      <c r="M67" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N67" s="41"/>
-      <c r="O67" s="26" t="s">
+      <c r="N67" s="39"/>
+      <c r="O67" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="P67" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q67" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
+      <c r="P67" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q67" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
     </row>
     <row r="68" customHeight="1" spans="1:19">
       <c r="A68" s="20"/>
@@ -8387,22 +8375,22 @@
         <v>16</v>
       </c>
       <c r="K68" s="20"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="41" t="s">
+      <c r="L68" s="38"/>
+      <c r="M68" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N68" s="41"/>
-      <c r="O68" s="26" t="s">
+      <c r="N68" s="39"/>
+      <c r="O68" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="P68" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q68" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
+      <c r="P68" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
     </row>
     <row r="69" customHeight="1" spans="1:19">
       <c r="A69" s="20"/>
@@ -8430,27 +8418,27 @@
         <v>16</v>
       </c>
       <c r="K69" s="20"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="41" t="s">
+      <c r="L69" s="38"/>
+      <c r="M69" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N69" s="41"/>
-      <c r="O69" s="26" t="s">
+      <c r="N69" s="39"/>
+      <c r="O69" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="P69" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q69" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
+      <c r="P69" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
     </row>
     <row r="70" customHeight="1" spans="1:19">
       <c r="A70" s="20"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>241</v>
       </c>
       <c r="D70" s="18"/>
@@ -8469,27 +8457,27 @@
         <v>16</v>
       </c>
       <c r="K70" s="20"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="41" t="s">
+      <c r="L70" s="38"/>
+      <c r="M70" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N70" s="41"/>
-      <c r="O70" s="26" t="s">
+      <c r="N70" s="39"/>
+      <c r="O70" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="P70" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q70" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R70" s="42"/>
-      <c r="S70" s="42"/>
+      <c r="P70" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
     </row>
     <row r="71" customHeight="1" spans="1:19">
       <c r="A71" s="20"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>244</v>
       </c>
       <c r="D71" s="18"/>
@@ -8508,27 +8496,27 @@
         <v>16</v>
       </c>
       <c r="K71" s="20"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="41" t="s">
+      <c r="L71" s="38"/>
+      <c r="M71" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N71" s="41"/>
-      <c r="O71" s="26" t="s">
+      <c r="N71" s="39"/>
+      <c r="O71" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="P71" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q71" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R71" s="42"/>
-      <c r="S71" s="42"/>
+      <c r="P71" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q71" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
     </row>
     <row r="72" customHeight="1" spans="1:19">
       <c r="A72" s="20"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D72" s="18"/>
@@ -8547,22 +8535,22 @@
         <v>16</v>
       </c>
       <c r="K72" s="20"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="41" t="s">
+      <c r="L72" s="38"/>
+      <c r="M72" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N72" s="41"/>
-      <c r="O72" s="26" t="s">
+      <c r="N72" s="39"/>
+      <c r="O72" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="P72" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q72" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R72" s="42"/>
-      <c r="S72" s="42"/>
+      <c r="P72" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q72" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
     </row>
     <row r="73" customHeight="1" spans="1:19">
       <c r="A73" s="20"/>
@@ -8588,22 +8576,22 @@
         <v>16</v>
       </c>
       <c r="K73" s="20"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="41" t="s">
+      <c r="L73" s="38"/>
+      <c r="M73" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="26" t="s">
+      <c r="N73" s="39"/>
+      <c r="O73" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="P73" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q73" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
+      <c r="P73" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q73" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
     </row>
     <row r="74" customHeight="1" spans="1:19">
       <c r="A74" s="20"/>
@@ -8627,22 +8615,22 @@
         <v>16</v>
       </c>
       <c r="K74" s="20"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="41" t="s">
+      <c r="L74" s="38"/>
+      <c r="M74" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N74" s="41"/>
-      <c r="O74" s="26" t="s">
+      <c r="N74" s="39"/>
+      <c r="O74" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="P74" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q74" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R74" s="42"/>
-      <c r="S74" s="42"/>
+      <c r="P74" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q74" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
     </row>
     <row r="75" customHeight="1" spans="1:19">
       <c r="A75" s="20"/>
@@ -8668,22 +8656,22 @@
         <v>16</v>
       </c>
       <c r="K75" s="20"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="41" t="s">
+      <c r="L75" s="38"/>
+      <c r="M75" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N75" s="41"/>
-      <c r="O75" s="26" t="s">
+      <c r="N75" s="39"/>
+      <c r="O75" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="P75" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q75" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
+      <c r="P75" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q75" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
     </row>
     <row r="76" customHeight="1" spans="1:19">
       <c r="A76" s="20"/>
@@ -8707,63 +8695,63 @@
         <v>16</v>
       </c>
       <c r="K76" s="20"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="41" t="s">
+      <c r="L76" s="38"/>
+      <c r="M76" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N76" s="41"/>
-      <c r="O76" s="26" t="s">
+      <c r="N76" s="39"/>
+      <c r="O76" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="P76" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q76" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
+      <c r="P76" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
     </row>
     <row r="77" customHeight="1" spans="1:19">
       <c r="A77" s="20"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="28">
         <v>4008</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30" t="s">
+      <c r="E77" s="28"/>
+      <c r="F77" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="G77" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="32" t="s">
+      <c r="G77" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K77" s="20"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="41" t="s">
+      <c r="L77" s="38"/>
+      <c r="M77" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N77" s="41"/>
-      <c r="O77" s="26" t="s">
+      <c r="N77" s="39"/>
+      <c r="O77" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="P77" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q77" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R77" s="42"/>
-      <c r="S77" s="42"/>
+      <c r="P77" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q77" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
     </row>
     <row r="78" ht="14.4" customHeight="1" spans="1:19">
       <c r="A78" s="20"/>
@@ -8787,22 +8775,22 @@
         <v>16</v>
       </c>
       <c r="K78" s="20"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="41" t="s">
+      <c r="L78" s="38"/>
+      <c r="M78" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N78" s="41"/>
-      <c r="O78" s="26" t="s">
+      <c r="N78" s="39"/>
+      <c r="O78" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="P78" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q78" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R78" s="42"/>
-      <c r="S78" s="42"/>
+      <c r="P78" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q78" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
     </row>
     <row r="79" ht="14.4" customHeight="1" spans="1:19">
       <c r="A79" s="20"/>
@@ -8830,27 +8818,27 @@
         <v>16</v>
       </c>
       <c r="K79" s="20"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="41" t="s">
+      <c r="L79" s="38"/>
+      <c r="M79" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N79" s="41"/>
-      <c r="O79" s="26" t="s">
+      <c r="N79" s="39"/>
+      <c r="O79" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="P79" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q79" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R79" s="42"/>
-      <c r="S79" s="42"/>
+      <c r="P79" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q79" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
     </row>
     <row r="80" ht="14.4" customHeight="1" spans="1:19">
       <c r="A80" s="20"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>270</v>
       </c>
       <c r="D80" s="18"/>
@@ -8869,27 +8857,27 @@
         <v>16</v>
       </c>
       <c r="K80" s="20"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="41" t="s">
+      <c r="L80" s="38"/>
+      <c r="M80" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N80" s="41"/>
-      <c r="O80" s="26" t="s">
+      <c r="N80" s="39"/>
+      <c r="O80" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="P80" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q80" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R80" s="42"/>
-      <c r="S80" s="42"/>
+      <c r="P80" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q80" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
     </row>
     <row r="81" ht="14.4" customHeight="1" spans="1:19">
       <c r="A81" s="20"/>
       <c r="B81" s="16"/>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>273</v>
       </c>
       <c r="D81" s="18"/>
@@ -8908,27 +8896,27 @@
         <v>16</v>
       </c>
       <c r="K81" s="20"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="41" t="s">
+      <c r="L81" s="38"/>
+      <c r="M81" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N81" s="41"/>
-      <c r="O81" s="26" t="s">
+      <c r="N81" s="39"/>
+      <c r="O81" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="P81" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q81" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
+      <c r="P81" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q81" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
     </row>
     <row r="82" ht="14.4" customHeight="1" spans="1:19">
       <c r="A82" s="20"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D82" s="18"/>
@@ -8947,22 +8935,22 @@
         <v>16</v>
       </c>
       <c r="K82" s="20"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="41" t="s">
+      <c r="L82" s="38"/>
+      <c r="M82" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N82" s="41"/>
-      <c r="O82" s="26" t="s">
+      <c r="N82" s="39"/>
+      <c r="O82" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="P82" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q82" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
+      <c r="P82" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q82" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
     </row>
     <row r="83" customHeight="1" spans="1:19">
       <c r="A83" s="20"/>
@@ -8988,22 +8976,22 @@
         <v>16</v>
       </c>
       <c r="K83" s="20"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="41" t="s">
+      <c r="L83" s="38"/>
+      <c r="M83" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N83" s="41"/>
-      <c r="O83" s="26" t="s">
+      <c r="N83" s="39"/>
+      <c r="O83" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="P83" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q83" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R83" s="42"/>
-      <c r="S83" s="42"/>
+      <c r="P83" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q83" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
     </row>
     <row r="84" customHeight="1" spans="1:19">
       <c r="A84" s="20"/>
@@ -9027,22 +9015,22 @@
         <v>16</v>
       </c>
       <c r="K84" s="20"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="41" t="s">
+      <c r="L84" s="38"/>
+      <c r="M84" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N84" s="41"/>
-      <c r="O84" s="26" t="s">
+      <c r="N84" s="39"/>
+      <c r="O84" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="P84" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q84" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R84" s="42"/>
-      <c r="S84" s="42"/>
+      <c r="P84" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q84" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
     </row>
     <row r="85" customHeight="1" spans="1:19">
       <c r="A85" s="20"/>
@@ -9068,22 +9056,22 @@
         <v>16</v>
       </c>
       <c r="K85" s="20"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="41" t="s">
+      <c r="L85" s="38"/>
+      <c r="M85" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N85" s="41"/>
-      <c r="O85" s="26" t="s">
+      <c r="N85" s="39"/>
+      <c r="O85" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="P85" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q85" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R85" s="42"/>
-      <c r="S85" s="42"/>
+      <c r="P85" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q85" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
     </row>
     <row r="86" customHeight="1" spans="1:19">
       <c r="A86" s="20"/>
@@ -9107,22 +9095,22 @@
         <v>16</v>
       </c>
       <c r="K86" s="20"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="41" t="s">
+      <c r="L86" s="38"/>
+      <c r="M86" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N86" s="41"/>
-      <c r="O86" s="26" t="s">
+      <c r="N86" s="39"/>
+      <c r="O86" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="P86" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q86" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R86" s="42"/>
-      <c r="S86" s="42"/>
+      <c r="P86" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q86" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
     </row>
     <row r="87" ht="14.4" customHeight="1" spans="1:19">
       <c r="A87" s="20"/>
@@ -9134,7 +9122,7 @@
         <v>4009</v>
       </c>
       <c r="E87" s="18"/>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="25" t="s">
         <v>291</v>
       </c>
       <c r="G87" s="14" t="s">
@@ -9148,22 +9136,22 @@
         <v>16</v>
       </c>
       <c r="K87" s="20"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="41" t="s">
+      <c r="L87" s="38"/>
+      <c r="M87" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N87" s="41"/>
-      <c r="O87" s="26" t="s">
+      <c r="N87" s="39"/>
+      <c r="O87" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="P87" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q87" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R87" s="42"/>
-      <c r="S87" s="42"/>
+      <c r="P87" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q87" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
     </row>
     <row r="88" customHeight="1" spans="1:19">
       <c r="A88" s="20"/>
@@ -9187,22 +9175,22 @@
         <v>16</v>
       </c>
       <c r="K88" s="20"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="41" t="s">
+      <c r="L88" s="38"/>
+      <c r="M88" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N88" s="41"/>
-      <c r="O88" s="26" t="s">
+      <c r="N88" s="39"/>
+      <c r="O88" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="P88" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q88" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R88" s="42"/>
-      <c r="S88" s="42"/>
+      <c r="P88" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q88" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
     </row>
     <row r="89" customHeight="1" spans="1:19">
       <c r="A89" s="20"/>
@@ -9230,27 +9218,27 @@
         <v>16</v>
       </c>
       <c r="K89" s="20"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="41" t="s">
+      <c r="L89" s="38"/>
+      <c r="M89" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N89" s="41"/>
-      <c r="O89" s="26" t="s">
+      <c r="N89" s="39"/>
+      <c r="O89" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="P89" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q89" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R89" s="42"/>
-      <c r="S89" s="42"/>
+      <c r="P89" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
     </row>
     <row r="90" customHeight="1" spans="1:19">
       <c r="A90" s="20"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>299</v>
       </c>
       <c r="D90" s="18"/>
@@ -9269,27 +9257,27 @@
         <v>16</v>
       </c>
       <c r="K90" s="20"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="41" t="s">
+      <c r="L90" s="38"/>
+      <c r="M90" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N90" s="41"/>
-      <c r="O90" s="26" t="s">
+      <c r="N90" s="39"/>
+      <c r="O90" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="P90" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q90" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R90" s="42"/>
-      <c r="S90" s="42"/>
+      <c r="P90" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
     </row>
     <row r="91" customHeight="1" spans="1:19">
       <c r="A91" s="20"/>
       <c r="B91" s="16"/>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="24" t="s">
         <v>302</v>
       </c>
       <c r="D91" s="18"/>
@@ -9308,27 +9296,27 @@
         <v>16</v>
       </c>
       <c r="K91" s="20"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="41" t="s">
+      <c r="L91" s="38"/>
+      <c r="M91" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="N91" s="41"/>
-      <c r="O91" s="26" t="s">
+      <c r="N91" s="39"/>
+      <c r="O91" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="P91" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q91" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R91" s="42"/>
-      <c r="S91" s="42"/>
+      <c r="P91" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q91" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
     </row>
     <row r="92" ht="14.4" customHeight="1" spans="1:19">
       <c r="A92" s="20"/>
       <c r="B92" s="16"/>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D92" s="18"/>
@@ -9346,36 +9334,36 @@
       <c r="J92" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K92" s="59" t="s">
+      <c r="K92" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="L92" s="60" t="s">
+      <c r="L92" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="M92" s="61" t="s">
+      <c r="M92" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="N92" s="39"/>
-      <c r="O92" s="62" t="s">
+      <c r="N92" s="37"/>
+      <c r="O92" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="P92" s="63" t="s">
+      <c r="P92" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q92" s="27" t="s">
+      <c r="Q92" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R92" s="27"/>
+      <c r="R92" s="26"/>
       <c r="S92" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:19">
       <c r="A93" s="20"/>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C93" s="44" t="s">
         <v>313</v>
       </c>
       <c r="D93" s="18">
@@ -9395,30 +9383,30 @@
       <c r="J93" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K93" s="59"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="61" t="s">
+      <c r="K93" s="57"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="N93" s="39"/>
-      <c r="O93" s="62" t="s">
+      <c r="N93" s="37"/>
+      <c r="O93" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="P93" s="63" t="s">
+      <c r="P93" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q93" s="27" t="s">
+      <c r="Q93" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R93" s="27"/>
+      <c r="R93" s="26"/>
       <c r="S93" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:19">
       <c r="A94" s="20"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="46" t="s">
+      <c r="B94" s="45"/>
+      <c r="C94" s="44" t="s">
         <v>317</v>
       </c>
       <c r="D94" s="18"/>
@@ -9436,30 +9424,30 @@
       <c r="J94" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="59"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="61" t="s">
+      <c r="K94" s="57"/>
+      <c r="L94" s="62"/>
+      <c r="M94" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="N94" s="39"/>
-      <c r="O94" s="62" t="s">
+      <c r="N94" s="37"/>
+      <c r="O94" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="P94" s="63" t="s">
+      <c r="P94" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q94" s="27" t="s">
+      <c r="Q94" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R94" s="27"/>
+      <c r="R94" s="26"/>
       <c r="S94" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:19">
       <c r="A95" s="20"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="48" t="s">
+      <c r="B95" s="45"/>
+      <c r="C95" s="46" t="s">
         <v>321</v>
       </c>
       <c r="D95" s="18">
@@ -9479,30 +9467,30 @@
       <c r="J95" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K95" s="59"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="61" t="s">
+      <c r="K95" s="57"/>
+      <c r="L95" s="62"/>
+      <c r="M95" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="N95" s="39"/>
-      <c r="O95" s="62" t="s">
+      <c r="N95" s="37"/>
+      <c r="O95" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="P95" s="63" t="s">
+      <c r="P95" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q95" s="27" t="s">
+      <c r="Q95" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R95" s="27"/>
+      <c r="R95" s="26"/>
       <c r="S95" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:19">
       <c r="A96" s="20"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="48" t="s">
+      <c r="B96" s="45"/>
+      <c r="C96" s="46" t="s">
         <v>325</v>
       </c>
       <c r="D96" s="18"/>
@@ -9520,30 +9508,30 @@
       <c r="J96" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K96" s="59"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="61" t="s">
+      <c r="K96" s="57"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="N96" s="39"/>
-      <c r="O96" s="62" t="s">
+      <c r="N96" s="37"/>
+      <c r="O96" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="P96" s="63" t="s">
+      <c r="P96" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q96" s="27" t="s">
+      <c r="Q96" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R96" s="27"/>
+      <c r="R96" s="26"/>
       <c r="S96" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:19">
       <c r="A97" s="20"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48" t="s">
+      <c r="B97" s="45"/>
+      <c r="C97" s="46" t="s">
         <v>329</v>
       </c>
       <c r="D97" s="18">
@@ -9563,30 +9551,30 @@
       <c r="J97" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="59"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="61" t="s">
+      <c r="K97" s="57"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="N97" s="39"/>
-      <c r="O97" s="62" t="s">
+      <c r="N97" s="37"/>
+      <c r="O97" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="P97" s="63" t="s">
+      <c r="P97" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q97" s="27" t="s">
+      <c r="Q97" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R97" s="27"/>
+      <c r="R97" s="26"/>
       <c r="S97" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:19">
       <c r="A98" s="20"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="48" t="s">
+      <c r="B98" s="45"/>
+      <c r="C98" s="46" t="s">
         <v>317</v>
       </c>
       <c r="D98" s="18"/>
@@ -9604,30 +9592,30 @@
       <c r="J98" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="59"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="61" t="s">
+      <c r="K98" s="57"/>
+      <c r="L98" s="62"/>
+      <c r="M98" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="N98" s="39"/>
-      <c r="O98" s="62" t="s">
+      <c r="N98" s="37"/>
+      <c r="O98" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="P98" s="63" t="s">
+      <c r="P98" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q98" s="27" t="s">
+      <c r="Q98" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R98" s="27"/>
+      <c r="R98" s="26"/>
       <c r="S98" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:19">
       <c r="A99" s="20"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="48" t="s">
+      <c r="B99" s="45"/>
+      <c r="C99" s="46" t="s">
         <v>336</v>
       </c>
       <c r="D99" s="18"/>
@@ -9645,30 +9633,30 @@
       <c r="J99" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="59"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="61" t="s">
+      <c r="K99" s="57"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="N99" s="39"/>
-      <c r="O99" s="62" t="s">
+      <c r="N99" s="37"/>
+      <c r="O99" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="P99" s="63" t="s">
+      <c r="P99" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q99" s="27" t="s">
+      <c r="Q99" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R99" s="27"/>
+      <c r="R99" s="26"/>
       <c r="S99" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="100" ht="14.4" customHeight="1" spans="1:19">
       <c r="A100" s="20"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="48" t="s">
+      <c r="B100" s="45"/>
+      <c r="C100" s="46" t="s">
         <v>340</v>
       </c>
       <c r="D100" s="18"/>
@@ -9686,32 +9674,32 @@
       <c r="J100" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="59"/>
-      <c r="L100" s="64"/>
-      <c r="M100" s="61" t="s">
+      <c r="K100" s="57"/>
+      <c r="L100" s="62"/>
+      <c r="M100" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="N100" s="39"/>
-      <c r="O100" s="62" t="s">
+      <c r="N100" s="37"/>
+      <c r="O100" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="P100" s="63" t="s">
+      <c r="P100" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q100" s="27" t="s">
+      <c r="Q100" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R100" s="27"/>
+      <c r="R100" s="26"/>
       <c r="S100" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:19">
       <c r="A101" s="20"/>
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="48" t="s">
         <v>345</v>
       </c>
       <c r="D101" s="18">
@@ -9733,30 +9721,30 @@
       <c r="J101" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="59"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="61" t="s">
+      <c r="K101" s="57"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="N101" s="39"/>
-      <c r="O101" s="62" t="s">
+      <c r="N101" s="37"/>
+      <c r="O101" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="P101" s="63" t="s">
+      <c r="P101" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q101" s="27" t="s">
+      <c r="Q101" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R101" s="27"/>
+      <c r="R101" s="26"/>
       <c r="S101" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:19">
       <c r="A102" s="20"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="50" t="s">
+      <c r="B102" s="49"/>
+      <c r="C102" s="48" t="s">
         <v>349</v>
       </c>
       <c r="D102" s="18">
@@ -9776,30 +9764,30 @@
       <c r="J102" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="59"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="61" t="s">
+      <c r="K102" s="57"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="N102" s="39"/>
-      <c r="O102" s="62" t="s">
+      <c r="N102" s="37"/>
+      <c r="O102" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="P102" s="63" t="s">
+      <c r="P102" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q102" s="27" t="s">
+      <c r="Q102" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R102" s="27"/>
+      <c r="R102" s="26"/>
       <c r="S102" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:19">
       <c r="A103" s="20"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="50" t="s">
+      <c r="B103" s="49"/>
+      <c r="C103" s="48" t="s">
         <v>353</v>
       </c>
       <c r="D103" s="18"/>
@@ -9817,37 +9805,37 @@
       <c r="J103" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K103" s="59"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="61" t="s">
+      <c r="K103" s="57"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="N103" s="39"/>
-      <c r="O103" s="62" t="s">
+      <c r="N103" s="37"/>
+      <c r="O103" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="P103" s="63" t="s">
+      <c r="P103" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q103" s="27" t="s">
+      <c r="Q103" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R103" s="27"/>
+      <c r="R103" s="26"/>
       <c r="S103" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:19">
       <c r="A104" s="20"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="50" t="s">
+      <c r="B104" s="49"/>
+      <c r="C104" s="48" t="s">
         <v>357</v>
       </c>
       <c r="D104" s="18">
         <v>4601</v>
       </c>
       <c r="E104" s="18"/>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="25" t="s">
         <v>358</v>
       </c>
       <c r="G104" s="14" t="s">
@@ -9860,30 +9848,30 @@
       <c r="J104" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="59"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="61" t="s">
+      <c r="K104" s="57"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="N104" s="39"/>
-      <c r="O104" s="62" t="s">
+      <c r="N104" s="37"/>
+      <c r="O104" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="P104" s="63" t="s">
+      <c r="P104" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q104" s="27" t="s">
+      <c r="Q104" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R104" s="27"/>
+      <c r="R104" s="26"/>
       <c r="S104" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:19">
       <c r="A105" s="20"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="50" t="s">
+      <c r="B105" s="49"/>
+      <c r="C105" s="48" t="s">
         <v>361</v>
       </c>
       <c r="D105" s="18"/>
@@ -9901,37 +9889,37 @@
       <c r="J105" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="59"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="61" t="s">
+      <c r="K105" s="57"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="N105" s="39"/>
-      <c r="O105" s="62" t="s">
+      <c r="N105" s="37"/>
+      <c r="O105" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="P105" s="63" t="s">
+      <c r="P105" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q105" s="27" t="s">
+      <c r="Q105" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R105" s="27"/>
+      <c r="R105" s="26"/>
       <c r="S105" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:19">
       <c r="A106" s="20"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="50" t="s">
+      <c r="B106" s="49"/>
+      <c r="C106" s="48" t="s">
         <v>365</v>
       </c>
       <c r="D106" s="18">
         <v>4602</v>
       </c>
       <c r="E106" s="18"/>
-      <c r="F106" s="26" t="s">
+      <c r="F106" s="25" t="s">
         <v>366</v>
       </c>
       <c r="G106" s="14" t="s">
@@ -9944,30 +9932,30 @@
       <c r="J106" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K106" s="59"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="61" t="s">
+      <c r="K106" s="57"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="N106" s="39"/>
-      <c r="O106" s="62" t="s">
+      <c r="N106" s="37"/>
+      <c r="O106" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="P106" s="63" t="s">
+      <c r="P106" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q106" s="27" t="s">
+      <c r="Q106" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R106" s="27"/>
+      <c r="R106" s="26"/>
       <c r="S106" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="107" ht="14.4" customHeight="1" spans="1:19">
       <c r="A107" s="20"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="50" t="s">
+      <c r="B107" s="49"/>
+      <c r="C107" s="48" t="s">
         <v>369</v>
       </c>
       <c r="D107" s="18"/>
@@ -9985,30 +9973,30 @@
       <c r="J107" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="59"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="61" t="s">
+      <c r="K107" s="57"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="N107" s="39"/>
-      <c r="O107" s="62" t="s">
+      <c r="N107" s="37"/>
+      <c r="O107" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="P107" s="63" t="s">
+      <c r="P107" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q107" s="27" t="s">
+      <c r="Q107" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R107" s="27"/>
+      <c r="R107" s="26"/>
       <c r="S107" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:19">
       <c r="A108" s="20"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="50" t="s">
+      <c r="B108" s="49"/>
+      <c r="C108" s="48" t="s">
         <v>373</v>
       </c>
       <c r="D108" s="18">
@@ -10030,30 +10018,30 @@
       <c r="J108" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K108" s="59"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="61" t="s">
+      <c r="K108" s="57"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="N108" s="39"/>
-      <c r="O108" s="62" t="s">
+      <c r="N108" s="37"/>
+      <c r="O108" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="P108" s="63" t="s">
+      <c r="P108" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q108" s="27" t="s">
+      <c r="Q108" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R108" s="27"/>
+      <c r="R108" s="26"/>
       <c r="S108" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:19">
       <c r="A109" s="20"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="50" t="s">
+      <c r="B109" s="49"/>
+      <c r="C109" s="48" t="s">
         <v>377</v>
       </c>
       <c r="D109" s="18"/>
@@ -10071,30 +10059,30 @@
       <c r="J109" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K109" s="59"/>
-      <c r="L109" s="64"/>
-      <c r="M109" s="61" t="s">
+      <c r="K109" s="57"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="N109" s="39"/>
-      <c r="O109" s="62" t="s">
+      <c r="N109" s="37"/>
+      <c r="O109" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="P109" s="63" t="s">
+      <c r="P109" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q109" s="27" t="s">
+      <c r="Q109" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R109" s="27"/>
+      <c r="R109" s="26"/>
       <c r="S109" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="110" customHeight="1" spans="1:19">
       <c r="A110" s="20"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="50" t="s">
+      <c r="B110" s="49"/>
+      <c r="C110" s="48" t="s">
         <v>381</v>
       </c>
       <c r="D110" s="18">
@@ -10114,30 +10102,30 @@
       <c r="J110" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K110" s="59"/>
-      <c r="L110" s="64"/>
-      <c r="M110" s="61" t="s">
+      <c r="K110" s="57"/>
+      <c r="L110" s="62"/>
+      <c r="M110" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="N110" s="39"/>
-      <c r="O110" s="62" t="s">
+      <c r="N110" s="37"/>
+      <c r="O110" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="P110" s="63" t="s">
+      <c r="P110" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q110" s="27" t="s">
+      <c r="Q110" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R110" s="27"/>
+      <c r="R110" s="26"/>
       <c r="S110" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" customHeight="1" spans="1:19">
       <c r="A111" s="20"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="50" t="s">
+      <c r="B111" s="49"/>
+      <c r="C111" s="48" t="s">
         <v>385</v>
       </c>
       <c r="D111" s="18"/>
@@ -10155,30 +10143,30 @@
       <c r="J111" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="59"/>
-      <c r="L111" s="64"/>
-      <c r="M111" s="61" t="s">
+      <c r="K111" s="57"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="N111" s="39"/>
-      <c r="O111" s="62" t="s">
+      <c r="N111" s="37"/>
+      <c r="O111" s="60" t="s">
         <v>388</v>
       </c>
-      <c r="P111" s="63" t="s">
+      <c r="P111" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q111" s="27" t="s">
+      <c r="Q111" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R111" s="27"/>
+      <c r="R111" s="26"/>
       <c r="S111" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="112" customHeight="1" spans="1:19">
       <c r="A112" s="20"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="50" t="s">
+      <c r="B112" s="49"/>
+      <c r="C112" s="48" t="s">
         <v>389</v>
       </c>
       <c r="D112" s="18"/>
@@ -10196,30 +10184,30 @@
       <c r="J112" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K112" s="59"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="61" t="s">
+      <c r="K112" s="57"/>
+      <c r="L112" s="62"/>
+      <c r="M112" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="N112" s="39"/>
-      <c r="O112" s="62" t="s">
+      <c r="N112" s="37"/>
+      <c r="O112" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="P112" s="63" t="s">
+      <c r="P112" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q112" s="27" t="s">
+      <c r="Q112" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R112" s="27"/>
+      <c r="R112" s="26"/>
       <c r="S112" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:19">
       <c r="A113" s="20"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="50" t="s">
+      <c r="B113" s="49"/>
+      <c r="C113" s="48" t="s">
         <v>393</v>
       </c>
       <c r="D113" s="18"/>
@@ -10237,30 +10225,30 @@
       <c r="J113" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="59"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="61" t="s">
+      <c r="K113" s="57"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="N113" s="39"/>
-      <c r="O113" s="62" t="s">
+      <c r="N113" s="37"/>
+      <c r="O113" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="P113" s="63" t="s">
+      <c r="P113" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q113" s="27" t="s">
+      <c r="Q113" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R113" s="27"/>
+      <c r="R113" s="26"/>
       <c r="S113" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:19">
       <c r="A114" s="20"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="52" t="s">
+      <c r="B114" s="49"/>
+      <c r="C114" s="50" t="s">
         <v>336</v>
       </c>
       <c r="D114" s="18"/>
@@ -10278,30 +10266,30 @@
       <c r="J114" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K114" s="59"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="61" t="s">
+      <c r="K114" s="57"/>
+      <c r="L114" s="62"/>
+      <c r="M114" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="N114" s="39"/>
-      <c r="O114" s="62" t="s">
+      <c r="N114" s="37"/>
+      <c r="O114" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="P114" s="63" t="s">
+      <c r="P114" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q114" s="27" t="s">
+      <c r="Q114" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R114" s="27"/>
+      <c r="R114" s="26"/>
       <c r="S114" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="115" ht="14.4" customHeight="1" spans="1:19">
       <c r="A115" s="20"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="52" t="s">
+      <c r="B115" s="49"/>
+      <c r="C115" s="50" t="s">
         <v>340</v>
       </c>
       <c r="D115" s="18"/>
@@ -10319,39 +10307,39 @@
       <c r="J115" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K115" s="59"/>
-      <c r="L115" s="64"/>
-      <c r="M115" s="65" t="s">
+      <c r="K115" s="57"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="63" t="s">
         <v>401</v>
       </c>
-      <c r="N115" s="39"/>
-      <c r="O115" s="62" t="s">
+      <c r="N115" s="37"/>
+      <c r="O115" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="P115" s="63" t="s">
+      <c r="P115" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q115" s="27" t="s">
+      <c r="Q115" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R115" s="27"/>
+      <c r="R115" s="26"/>
       <c r="S115" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:19">
       <c r="A116" s="20"/>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="52" t="s">
         <v>404</v>
       </c>
       <c r="D116" s="18">
         <v>4201</v>
       </c>
       <c r="E116" s="18"/>
-      <c r="F116" s="26" t="s">
+      <c r="F116" s="25" t="s">
         <v>405</v>
       </c>
       <c r="G116" s="14" t="s">
@@ -10364,30 +10352,30 @@
       <c r="J116" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K116" s="59"/>
-      <c r="L116" s="64"/>
-      <c r="M116" s="65" t="s">
+      <c r="K116" s="57"/>
+      <c r="L116" s="62"/>
+      <c r="M116" s="63" t="s">
         <v>406</v>
       </c>
-      <c r="N116" s="39"/>
-      <c r="O116" s="62" t="s">
+      <c r="N116" s="37"/>
+      <c r="O116" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="P116" s="62" t="s">
+      <c r="P116" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="Q116" s="62" t="s">
+      <c r="Q116" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="R116" s="27"/>
-      <c r="S116" s="62" t="s">
+      <c r="R116" s="26"/>
+      <c r="S116" s="60" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="117" ht="14.4" customHeight="1" spans="1:19">
       <c r="A117" s="20"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="54" t="s">
+      <c r="B117" s="53"/>
+      <c r="C117" s="52" t="s">
         <v>408</v>
       </c>
       <c r="D117" s="18"/>
@@ -10405,30 +10393,30 @@
       <c r="J117" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="59"/>
-      <c r="L117" s="66"/>
-      <c r="M117" s="65" t="s">
+      <c r="K117" s="57"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="63" t="s">
         <v>410</v>
       </c>
-      <c r="N117" s="39"/>
-      <c r="O117" s="62" t="s">
+      <c r="N117" s="37"/>
+      <c r="O117" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="P117" s="63" t="s">
+      <c r="P117" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="Q117" s="27" t="s">
+      <c r="Q117" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="R117" s="27"/>
+      <c r="R117" s="26"/>
       <c r="S117" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:10">
       <c r="A118" s="20"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="54" t="s">
+      <c r="B118" s="53"/>
+      <c r="C118" s="52" t="s">
         <v>412</v>
       </c>
       <c r="D118" s="18">
@@ -10451,8 +10439,8 @@
     </row>
     <row r="119" customHeight="1" spans="1:10">
       <c r="A119" s="20"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="54" t="s">
+      <c r="B119" s="53"/>
+      <c r="C119" s="52" t="s">
         <v>414</v>
       </c>
       <c r="D119" s="18"/>
@@ -10473,15 +10461,15 @@
     </row>
     <row r="120" customHeight="1" spans="1:10">
       <c r="A120" s="20"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="54" t="s">
+      <c r="B120" s="53"/>
+      <c r="C120" s="52" t="s">
         <v>416</v>
       </c>
       <c r="D120" s="18">
         <v>4203</v>
       </c>
       <c r="E120" s="18"/>
-      <c r="F120" s="26" t="s">
+      <c r="F120" s="25" t="s">
         <v>417</v>
       </c>
       <c r="G120" s="14" t="s">
@@ -10497,8 +10485,8 @@
     </row>
     <row r="121" customHeight="1" spans="1:10">
       <c r="A121" s="20"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="54" t="s">
+      <c r="B121" s="53"/>
+      <c r="C121" s="52" t="s">
         <v>418</v>
       </c>
       <c r="D121" s="18"/>
@@ -10519,8 +10507,8 @@
     </row>
     <row r="122" customHeight="1" spans="1:10">
       <c r="A122" s="20"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="56" t="s">
+      <c r="B122" s="53"/>
+      <c r="C122" s="54" t="s">
         <v>336</v>
       </c>
       <c r="D122" s="18"/>
@@ -10541,8 +10529,8 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="20"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="56" t="s">
+      <c r="B123" s="53"/>
+      <c r="C123" s="54" t="s">
         <v>340</v>
       </c>
       <c r="D123" s="18"/>
@@ -10560,25 +10548,25 @@
       <c r="J123" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L123" s="67" t="s">
+      <c r="L123" s="65" t="s">
         <v>422</v>
       </c>
-      <c r="M123" s="68"/>
-      <c r="N123" s="69" t="s">
+      <c r="M123" s="66"/>
+      <c r="N123" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="P123" s="67" t="s">
+      <c r="P123" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="Q123" s="68"/>
-      <c r="R123" s="69" t="s">
+      <c r="Q123" s="66"/>
+      <c r="R123" s="67" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="20"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="56" t="s">
+      <c r="B124" s="53"/>
+      <c r="C124" s="54" t="s">
         <v>426</v>
       </c>
       <c r="D124" s="18"/>
@@ -10596,25 +10584,25 @@
       <c r="J124" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L124" s="70" t="s">
+      <c r="L124" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="M124" s="71"/>
-      <c r="N124" s="69" t="s">
+      <c r="M124" s="69"/>
+      <c r="N124" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="P124" s="70" t="s">
+      <c r="P124" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="Q124" s="71"/>
-      <c r="R124" s="69" t="s">
+      <c r="Q124" s="69"/>
+      <c r="R124" s="67" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="125" ht="14.4" customHeight="1" spans="1:18">
       <c r="A125" s="20"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="56" t="s">
+      <c r="B125" s="53"/>
+      <c r="C125" s="54" t="s">
         <v>431</v>
       </c>
       <c r="D125" s="18"/>
@@ -10632,26 +10620,26 @@
       <c r="J125" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L125" s="72"/>
-      <c r="M125" s="73"/>
-      <c r="N125" s="69" t="s">
+      <c r="L125" s="70"/>
+      <c r="M125" s="71"/>
+      <c r="N125" s="67" t="s">
         <v>433</v>
       </c>
-      <c r="P125" s="72"/>
-      <c r="Q125" s="73"/>
-      <c r="R125" s="69" t="s">
+      <c r="P125" s="70"/>
+      <c r="Q125" s="71"/>
+      <c r="R125" s="67" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="20"/>
-      <c r="B126" s="57" t="s">
+      <c r="B126" s="55" t="s">
         <v>434</v>
       </c>
-      <c r="C126" s="58" t="s">
+      <c r="C126" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="D126" s="27" t="s">
+      <c r="D126" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E126" s="18"/>
@@ -10668,24 +10656,24 @@
       <c r="J126" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L126" s="72"/>
-      <c r="M126" s="73"/>
-      <c r="N126" s="69" t="s">
+      <c r="L126" s="70"/>
+      <c r="M126" s="71"/>
+      <c r="N126" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="P126" s="72"/>
-      <c r="Q126" s="73"/>
-      <c r="R126" s="69" t="s">
+      <c r="P126" s="70"/>
+      <c r="Q126" s="71"/>
+      <c r="R126" s="67" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="127" ht="14.4" customHeight="1" spans="1:18">
       <c r="A127" s="20"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="58" t="s">
+      <c r="B127" s="55"/>
+      <c r="C127" s="56" t="s">
         <v>438</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E127" s="18"/>
@@ -10702,24 +10690,24 @@
       <c r="J127" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L127" s="74"/>
-      <c r="M127" s="75"/>
-      <c r="N127" s="76" t="s">
+      <c r="L127" s="72"/>
+      <c r="M127" s="73"/>
+      <c r="N127" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="P127" s="74"/>
-      <c r="Q127" s="75"/>
-      <c r="R127" s="76" t="s">
+      <c r="P127" s="72"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="74" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="20"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="58" t="s">
+      <c r="B128" s="55"/>
+      <c r="C128" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E128" s="18"/>
@@ -10736,28 +10724,28 @@
       <c r="J128" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L128" s="67" t="s">
+      <c r="L128" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="M128" s="68"/>
-      <c r="N128" s="76" t="s">
+      <c r="M128" s="66"/>
+      <c r="N128" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="P128" s="67" t="s">
+      <c r="P128" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="Q128" s="68"/>
-      <c r="R128" s="76" t="s">
+      <c r="Q128" s="66"/>
+      <c r="R128" s="74" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:14">
       <c r="A129" s="20"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="58" t="s">
+      <c r="B129" s="55"/>
+      <c r="C129" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="D129" s="27" t="s">
+      <c r="D129" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E129" s="18"/>
@@ -10775,15 +10763,15 @@
         <v>16</v>
       </c>
       <c r="M129" s="4"/>
-      <c r="N129" s="77"/>
+      <c r="N129" s="75"/>
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="20"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="58" t="s">
+      <c r="B130" s="55"/>
+      <c r="C130" s="56" t="s">
         <v>448</v>
       </c>
-      <c r="D130" s="27" t="s">
+      <c r="D130" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E130" s="18"/>
@@ -10800,28 +10788,28 @@
       <c r="J130" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L130" s="69" t="s">
+      <c r="L130" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="M130" s="78"/>
-      <c r="N130" s="77" t="s">
+      <c r="M130" s="76"/>
+      <c r="N130" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="P130" s="67" t="s">
+      <c r="P130" s="65" t="s">
         <v>452</v>
       </c>
-      <c r="Q130" s="68"/>
-      <c r="R130" s="69" t="s">
+      <c r="Q130" s="66"/>
+      <c r="R130" s="67" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="20"/>
-      <c r="B131" s="57"/>
-      <c r="C131" s="58" t="s">
+      <c r="B131" s="55"/>
+      <c r="C131" s="56" t="s">
         <v>454</v>
       </c>
-      <c r="D131" s="27" t="s">
+      <c r="D131" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E131" s="18"/>
@@ -10838,28 +10826,28 @@
       <c r="J131" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L131" s="69" t="s">
+      <c r="L131" s="67" t="s">
         <v>456</v>
       </c>
-      <c r="M131" s="79"/>
-      <c r="N131" s="77" t="s">
+      <c r="M131" s="77"/>
+      <c r="N131" s="75" t="s">
         <v>457</v>
       </c>
-      <c r="P131" s="70" t="s">
+      <c r="P131" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="Q131" s="71"/>
-      <c r="R131" s="69" t="s">
+      <c r="Q131" s="69"/>
+      <c r="R131" s="67" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="20"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="58" t="s">
+      <c r="B132" s="55"/>
+      <c r="C132" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="D132" s="27" t="s">
+      <c r="D132" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E132" s="18"/>
@@ -10876,22 +10864,22 @@
       <c r="J132" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L132" s="77"/>
-      <c r="M132" s="78"/>
-      <c r="N132" s="77"/>
-      <c r="P132" s="72"/>
-      <c r="Q132" s="73"/>
-      <c r="R132" s="69" t="s">
+      <c r="L132" s="75"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="75"/>
+      <c r="P132" s="70"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="67" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="20"/>
-      <c r="B133" s="57"/>
-      <c r="C133" s="58" t="s">
+      <c r="B133" s="55"/>
+      <c r="C133" s="56" t="s">
         <v>461</v>
       </c>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E133" s="18"/>
@@ -10908,26 +10896,26 @@
       <c r="J133" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L133" s="69" t="s">
+      <c r="L133" s="67" t="s">
         <v>450</v>
       </c>
-      <c r="M133" s="79"/>
-      <c r="N133" s="77" t="s">
+      <c r="M133" s="77"/>
+      <c r="N133" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="P133" s="72"/>
-      <c r="Q133" s="73"/>
-      <c r="R133" s="69" t="s">
+      <c r="P133" s="70"/>
+      <c r="Q133" s="71"/>
+      <c r="R133" s="67" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="20"/>
-      <c r="B134" s="57"/>
-      <c r="C134" s="58" t="s">
+      <c r="B134" s="55"/>
+      <c r="C134" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="D134" s="27" t="s">
+      <c r="D134" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E134" s="18"/>
@@ -10944,26 +10932,26 @@
       <c r="J134" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L134" s="69" t="s">
+      <c r="L134" s="67" t="s">
         <v>465</v>
       </c>
-      <c r="M134" s="79"/>
-      <c r="N134" s="80" t="s">
+      <c r="M134" s="77"/>
+      <c r="N134" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="P134" s="74"/>
-      <c r="Q134" s="75"/>
-      <c r="R134" s="76" t="s">
+      <c r="P134" s="72"/>
+      <c r="Q134" s="73"/>
+      <c r="R134" s="74" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="135" ht="14.4" customHeight="1" spans="1:18">
       <c r="A135" s="20"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="58" t="s">
+      <c r="B135" s="55"/>
+      <c r="C135" s="56" t="s">
         <v>463</v>
       </c>
-      <c r="D135" s="27" t="s">
+      <c r="D135" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E135" s="18"/>
@@ -10980,11 +10968,11 @@
       <c r="J135" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P135" s="67" t="s">
+      <c r="P135" s="65" t="s">
         <v>468</v>
       </c>
-      <c r="Q135" s="68"/>
-      <c r="R135" s="76" t="s">
+      <c r="Q135" s="66"/>
+      <c r="R135" s="74" t="s">
         <v>444</v>
       </c>
     </row>

--- a/项目/中餐厅设备点检/博智林店中餐厅设备IP地址需求表V1.1 200418 .xlsx
+++ b/项目/中餐厅设备点检/博智林店中餐厅设备IP地址需求表V1.1 200418 .xlsx
@@ -4131,10 +4131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -4190,14 +4190,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4212,45 +4220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4272,8 +4242,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4281,15 +4265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4305,21 +4281,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4424,31 +4424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4466,13 +4460,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4484,13 +4520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4502,31 +4544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4538,19 +4556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4563,12 +4569,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4736,6 +4736,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -4753,6 +4773,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4786,60 +4830,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4848,135 +4848,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5122,6 +5122,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5519,8 +5528,8 @@
   <sheetPr/>
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:E40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -9334,20 +9343,20 @@
       <c r="J92" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K92" s="57" t="s">
+      <c r="K92" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="L92" s="58" t="s">
+      <c r="L92" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="M92" s="59" t="s">
+      <c r="M92" s="62" t="s">
         <v>308</v>
       </c>
       <c r="N92" s="37"/>
-      <c r="O92" s="60" t="s">
+      <c r="O92" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="P92" s="61" t="s">
+      <c r="P92" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q92" s="26" t="s">
@@ -9383,16 +9392,16 @@
       <c r="J93" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K93" s="57"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="59" t="s">
+      <c r="K93" s="60"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="62" t="s">
         <v>315</v>
       </c>
       <c r="N93" s="37"/>
-      <c r="O93" s="60" t="s">
+      <c r="O93" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="P93" s="61" t="s">
+      <c r="P93" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q93" s="26" t="s">
@@ -9424,16 +9433,16 @@
       <c r="J94" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="57"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="59" t="s">
+      <c r="K94" s="60"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="62" t="s">
         <v>319</v>
       </c>
       <c r="N94" s="37"/>
-      <c r="O94" s="60" t="s">
+      <c r="O94" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="P94" s="61" t="s">
+      <c r="P94" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q94" s="26" t="s">
@@ -9467,16 +9476,16 @@
       <c r="J95" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K95" s="57"/>
-      <c r="L95" s="62"/>
-      <c r="M95" s="59" t="s">
+      <c r="K95" s="60"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="62" t="s">
         <v>323</v>
       </c>
       <c r="N95" s="37"/>
-      <c r="O95" s="60" t="s">
+      <c r="O95" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="P95" s="61" t="s">
+      <c r="P95" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q95" s="26" t="s">
@@ -9508,16 +9517,16 @@
       <c r="J96" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K96" s="57"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="59" t="s">
+      <c r="K96" s="60"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="62" t="s">
         <v>327</v>
       </c>
       <c r="N96" s="37"/>
-      <c r="O96" s="60" t="s">
+      <c r="O96" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="P96" s="61" t="s">
+      <c r="P96" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q96" s="26" t="s">
@@ -9551,16 +9560,16 @@
       <c r="J97" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K97" s="57"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="59" t="s">
+      <c r="K97" s="60"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="62" t="s">
         <v>331</v>
       </c>
       <c r="N97" s="37"/>
-      <c r="O97" s="60" t="s">
+      <c r="O97" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="P97" s="61" t="s">
+      <c r="P97" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q97" s="26" t="s">
@@ -9592,16 +9601,16 @@
       <c r="J98" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="57"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="59" t="s">
+      <c r="K98" s="60"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="62" t="s">
         <v>334</v>
       </c>
       <c r="N98" s="37"/>
-      <c r="O98" s="60" t="s">
+      <c r="O98" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="P98" s="61" t="s">
+      <c r="P98" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q98" s="26" t="s">
@@ -9633,16 +9642,16 @@
       <c r="J99" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K99" s="57"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="59" t="s">
+      <c r="K99" s="60"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="62" t="s">
         <v>338</v>
       </c>
       <c r="N99" s="37"/>
-      <c r="O99" s="60" t="s">
+      <c r="O99" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="P99" s="61" t="s">
+      <c r="P99" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q99" s="26" t="s">
@@ -9674,16 +9683,16 @@
       <c r="J100" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="57"/>
-      <c r="L100" s="62"/>
-      <c r="M100" s="59" t="s">
+      <c r="K100" s="60"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="62" t="s">
         <v>342</v>
       </c>
       <c r="N100" s="37"/>
-      <c r="O100" s="60" t="s">
+      <c r="O100" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="P100" s="61" t="s">
+      <c r="P100" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q100" s="26" t="s">
@@ -9721,16 +9730,16 @@
       <c r="J101" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="57"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="59" t="s">
+      <c r="K101" s="60"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="62" t="s">
         <v>347</v>
       </c>
       <c r="N101" s="37"/>
-      <c r="O101" s="60" t="s">
+      <c r="O101" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="P101" s="61" t="s">
+      <c r="P101" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q101" s="26" t="s">
@@ -9764,16 +9773,16 @@
       <c r="J102" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="57"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="59" t="s">
+      <c r="K102" s="60"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="62" t="s">
         <v>351</v>
       </c>
       <c r="N102" s="37"/>
-      <c r="O102" s="60" t="s">
+      <c r="O102" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="P102" s="61" t="s">
+      <c r="P102" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q102" s="26" t="s">
@@ -9805,16 +9814,16 @@
       <c r="J103" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K103" s="57"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="59" t="s">
+      <c r="K103" s="60"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="62" t="s">
         <v>355</v>
       </c>
       <c r="N103" s="37"/>
-      <c r="O103" s="60" t="s">
+      <c r="O103" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="P103" s="61" t="s">
+      <c r="P103" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q103" s="26" t="s">
@@ -9848,16 +9857,16 @@
       <c r="J104" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="57"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="59" t="s">
+      <c r="K104" s="60"/>
+      <c r="L104" s="65"/>
+      <c r="M104" s="62" t="s">
         <v>359</v>
       </c>
       <c r="N104" s="37"/>
-      <c r="O104" s="60" t="s">
+      <c r="O104" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="P104" s="61" t="s">
+      <c r="P104" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q104" s="26" t="s">
@@ -9889,16 +9898,16 @@
       <c r="J105" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K105" s="57"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="59" t="s">
+      <c r="K105" s="60"/>
+      <c r="L105" s="65"/>
+      <c r="M105" s="62" t="s">
         <v>363</v>
       </c>
       <c r="N105" s="37"/>
-      <c r="O105" s="60" t="s">
+      <c r="O105" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="P105" s="61" t="s">
+      <c r="P105" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q105" s="26" t="s">
@@ -9932,16 +9941,16 @@
       <c r="J106" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K106" s="57"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="59" t="s">
+      <c r="K106" s="60"/>
+      <c r="L106" s="65"/>
+      <c r="M106" s="62" t="s">
         <v>367</v>
       </c>
       <c r="N106" s="37"/>
-      <c r="O106" s="60" t="s">
+      <c r="O106" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="P106" s="61" t="s">
+      <c r="P106" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q106" s="26" t="s">
@@ -9973,16 +9982,16 @@
       <c r="J107" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="57"/>
-      <c r="L107" s="62"/>
-      <c r="M107" s="59" t="s">
+      <c r="K107" s="60"/>
+      <c r="L107" s="65"/>
+      <c r="M107" s="62" t="s">
         <v>371</v>
       </c>
       <c r="N107" s="37"/>
-      <c r="O107" s="60" t="s">
+      <c r="O107" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="P107" s="61" t="s">
+      <c r="P107" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q107" s="26" t="s">
@@ -9996,16 +10005,16 @@
     <row r="108" customHeight="1" spans="1:19">
       <c r="A108" s="20"/>
       <c r="B108" s="49"/>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="22">
         <v>2601</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="22">
         <v>2602</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="23" t="s">
         <v>374</v>
       </c>
       <c r="G108" s="14" t="s">
@@ -10018,16 +10027,16 @@
       <c r="J108" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K108" s="57"/>
-      <c r="L108" s="62"/>
-      <c r="M108" s="59" t="s">
+      <c r="K108" s="60"/>
+      <c r="L108" s="65"/>
+      <c r="M108" s="62" t="s">
         <v>375</v>
       </c>
       <c r="N108" s="37"/>
-      <c r="O108" s="60" t="s">
+      <c r="O108" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="P108" s="61" t="s">
+      <c r="P108" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q108" s="26" t="s">
@@ -10059,16 +10068,16 @@
       <c r="J109" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K109" s="57"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="59" t="s">
+      <c r="K109" s="60"/>
+      <c r="L109" s="65"/>
+      <c r="M109" s="62" t="s">
         <v>379</v>
       </c>
       <c r="N109" s="37"/>
-      <c r="O109" s="60" t="s">
+      <c r="O109" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="P109" s="61" t="s">
+      <c r="P109" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q109" s="26" t="s">
@@ -10082,14 +10091,14 @@
     <row r="110" customHeight="1" spans="1:19">
       <c r="A110" s="20"/>
       <c r="B110" s="49"/>
-      <c r="C110" s="48" t="s">
+      <c r="C110" s="51" t="s">
         <v>381</v>
       </c>
       <c r="D110" s="18">
         <v>2603</v>
       </c>
       <c r="E110" s="18"/>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="52" t="s">
         <v>382</v>
       </c>
       <c r="G110" s="14" t="s">
@@ -10102,16 +10111,16 @@
       <c r="J110" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K110" s="57"/>
-      <c r="L110" s="62"/>
-      <c r="M110" s="59" t="s">
+      <c r="K110" s="60"/>
+      <c r="L110" s="65"/>
+      <c r="M110" s="62" t="s">
         <v>383</v>
       </c>
       <c r="N110" s="37"/>
-      <c r="O110" s="60" t="s">
+      <c r="O110" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="P110" s="61" t="s">
+      <c r="P110" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q110" s="26" t="s">
@@ -10143,16 +10152,16 @@
       <c r="J111" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="57"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="59" t="s">
+      <c r="K111" s="60"/>
+      <c r="L111" s="65"/>
+      <c r="M111" s="62" t="s">
         <v>387</v>
       </c>
       <c r="N111" s="37"/>
-      <c r="O111" s="60" t="s">
+      <c r="O111" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="P111" s="61" t="s">
+      <c r="P111" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q111" s="26" t="s">
@@ -10184,16 +10193,16 @@
       <c r="J112" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K112" s="57"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="59" t="s">
+      <c r="K112" s="60"/>
+      <c r="L112" s="65"/>
+      <c r="M112" s="62" t="s">
         <v>391</v>
       </c>
       <c r="N112" s="37"/>
-      <c r="O112" s="60" t="s">
+      <c r="O112" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="P112" s="61" t="s">
+      <c r="P112" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q112" s="26" t="s">
@@ -10225,16 +10234,16 @@
       <c r="J113" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K113" s="57"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="59" t="s">
+      <c r="K113" s="60"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="62" t="s">
         <v>395</v>
       </c>
       <c r="N113" s="37"/>
-      <c r="O113" s="60" t="s">
+      <c r="O113" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="P113" s="61" t="s">
+      <c r="P113" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q113" s="26" t="s">
@@ -10248,7 +10257,7 @@
     <row r="114" customHeight="1" spans="1:19">
       <c r="A114" s="20"/>
       <c r="B114" s="49"/>
-      <c r="C114" s="50" t="s">
+      <c r="C114" s="53" t="s">
         <v>336</v>
       </c>
       <c r="D114" s="18"/>
@@ -10266,16 +10275,16 @@
       <c r="J114" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K114" s="57"/>
-      <c r="L114" s="62"/>
-      <c r="M114" s="59" t="s">
+      <c r="K114" s="60"/>
+      <c r="L114" s="65"/>
+      <c r="M114" s="62" t="s">
         <v>398</v>
       </c>
       <c r="N114" s="37"/>
-      <c r="O114" s="60" t="s">
+      <c r="O114" s="63" t="s">
         <v>399</v>
       </c>
-      <c r="P114" s="61" t="s">
+      <c r="P114" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q114" s="26" t="s">
@@ -10289,7 +10298,7 @@
     <row r="115" ht="14.4" customHeight="1" spans="1:19">
       <c r="A115" s="20"/>
       <c r="B115" s="49"/>
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="53" t="s">
         <v>340</v>
       </c>
       <c r="D115" s="18"/>
@@ -10307,16 +10316,16 @@
       <c r="J115" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K115" s="57"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="63" t="s">
+      <c r="K115" s="60"/>
+      <c r="L115" s="65"/>
+      <c r="M115" s="66" t="s">
         <v>401</v>
       </c>
       <c r="N115" s="37"/>
-      <c r="O115" s="60" t="s">
+      <c r="O115" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="P115" s="61" t="s">
+      <c r="P115" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q115" s="26" t="s">
@@ -10329,10 +10338,10 @@
     </row>
     <row r="116" customHeight="1" spans="1:19">
       <c r="A116" s="20"/>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="55" t="s">
         <v>404</v>
       </c>
       <c r="D116" s="18">
@@ -10352,30 +10361,30 @@
       <c r="J116" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K116" s="57"/>
-      <c r="L116" s="62"/>
-      <c r="M116" s="63" t="s">
+      <c r="K116" s="60"/>
+      <c r="L116" s="65"/>
+      <c r="M116" s="66" t="s">
         <v>406</v>
       </c>
       <c r="N116" s="37"/>
-      <c r="O116" s="60" t="s">
+      <c r="O116" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="P116" s="60" t="s">
+      <c r="P116" s="63" t="s">
         <v>407</v>
       </c>
-      <c r="Q116" s="60" t="s">
+      <c r="Q116" s="63" t="s">
         <v>407</v>
       </c>
       <c r="R116" s="26"/>
-      <c r="S116" s="60" t="s">
+      <c r="S116" s="63" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="117" ht="14.4" customHeight="1" spans="1:19">
       <c r="A117" s="20"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="52" t="s">
+      <c r="B117" s="56"/>
+      <c r="C117" s="55" t="s">
         <v>408</v>
       </c>
       <c r="D117" s="18"/>
@@ -10393,16 +10402,16 @@
       <c r="J117" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K117" s="57"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="63" t="s">
+      <c r="K117" s="60"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="66" t="s">
         <v>410</v>
       </c>
       <c r="N117" s="37"/>
-      <c r="O117" s="60" t="s">
+      <c r="O117" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="P117" s="61" t="s">
+      <c r="P117" s="64" t="s">
         <v>310</v>
       </c>
       <c r="Q117" s="26" t="s">
@@ -10415,8 +10424,8 @@
     </row>
     <row r="118" customHeight="1" spans="1:10">
       <c r="A118" s="20"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="52" t="s">
+      <c r="B118" s="56"/>
+      <c r="C118" s="55" t="s">
         <v>412</v>
       </c>
       <c r="D118" s="18">
@@ -10439,8 +10448,8 @@
     </row>
     <row r="119" customHeight="1" spans="1:10">
       <c r="A119" s="20"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="52" t="s">
+      <c r="B119" s="56"/>
+      <c r="C119" s="55" t="s">
         <v>414</v>
       </c>
       <c r="D119" s="18"/>
@@ -10461,8 +10470,8 @@
     </row>
     <row r="120" customHeight="1" spans="1:10">
       <c r="A120" s="20"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="52" t="s">
+      <c r="B120" s="56"/>
+      <c r="C120" s="55" t="s">
         <v>416</v>
       </c>
       <c r="D120" s="18">
@@ -10485,8 +10494,8 @@
     </row>
     <row r="121" customHeight="1" spans="1:10">
       <c r="A121" s="20"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="52" t="s">
+      <c r="B121" s="56"/>
+      <c r="C121" s="55" t="s">
         <v>418</v>
       </c>
       <c r="D121" s="18"/>
@@ -10507,8 +10516,8 @@
     </row>
     <row r="122" customHeight="1" spans="1:10">
       <c r="A122" s="20"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="54" t="s">
+      <c r="B122" s="56"/>
+      <c r="C122" s="57" t="s">
         <v>336</v>
       </c>
       <c r="D122" s="18"/>
@@ -10529,8 +10538,8 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="20"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="54" t="s">
+      <c r="B123" s="56"/>
+      <c r="C123" s="57" t="s">
         <v>340</v>
       </c>
       <c r="D123" s="18"/>
@@ -10548,25 +10557,25 @@
       <c r="J123" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L123" s="65" t="s">
+      <c r="L123" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="M123" s="66"/>
-      <c r="N123" s="67" t="s">
+      <c r="M123" s="69"/>
+      <c r="N123" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="P123" s="65" t="s">
+      <c r="P123" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="Q123" s="66"/>
-      <c r="R123" s="67" t="s">
+      <c r="Q123" s="69"/>
+      <c r="R123" s="70" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="20"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="54" t="s">
+      <c r="B124" s="56"/>
+      <c r="C124" s="57" t="s">
         <v>426</v>
       </c>
       <c r="D124" s="18"/>
@@ -10584,25 +10593,25 @@
       <c r="J124" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L124" s="68" t="s">
+      <c r="L124" s="71" t="s">
         <v>428</v>
       </c>
-      <c r="M124" s="69"/>
-      <c r="N124" s="67" t="s">
+      <c r="M124" s="72"/>
+      <c r="N124" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="P124" s="68" t="s">
+      <c r="P124" s="71" t="s">
         <v>430</v>
       </c>
-      <c r="Q124" s="69"/>
-      <c r="R124" s="67" t="s">
+      <c r="Q124" s="72"/>
+      <c r="R124" s="70" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="125" ht="14.4" customHeight="1" spans="1:18">
       <c r="A125" s="20"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54" t="s">
+      <c r="B125" s="56"/>
+      <c r="C125" s="57" t="s">
         <v>431</v>
       </c>
       <c r="D125" s="18"/>
@@ -10620,23 +10629,23 @@
       <c r="J125" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L125" s="70"/>
-      <c r="M125" s="71"/>
-      <c r="N125" s="67" t="s">
+      <c r="L125" s="73"/>
+      <c r="M125" s="74"/>
+      <c r="N125" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="P125" s="70"/>
-      <c r="Q125" s="71"/>
-      <c r="R125" s="67" t="s">
+      <c r="P125" s="73"/>
+      <c r="Q125" s="74"/>
+      <c r="R125" s="70" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="20"/>
-      <c r="B126" s="55" t="s">
+      <c r="B126" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="59" t="s">
         <v>435</v>
       </c>
       <c r="D126" s="26" t="s">
@@ -10656,21 +10665,21 @@
       <c r="J126" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L126" s="70"/>
-      <c r="M126" s="71"/>
-      <c r="N126" s="67" t="s">
+      <c r="L126" s="73"/>
+      <c r="M126" s="74"/>
+      <c r="N126" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="P126" s="70"/>
-      <c r="Q126" s="71"/>
-      <c r="R126" s="67" t="s">
+      <c r="P126" s="73"/>
+      <c r="Q126" s="74"/>
+      <c r="R126" s="70" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="127" ht="14.4" customHeight="1" spans="1:18">
       <c r="A127" s="20"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="56" t="s">
+      <c r="B127" s="58"/>
+      <c r="C127" s="59" t="s">
         <v>438</v>
       </c>
       <c r="D127" s="26" t="s">
@@ -10690,21 +10699,21 @@
       <c r="J127" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L127" s="72"/>
-      <c r="M127" s="73"/>
-      <c r="N127" s="74" t="s">
+      <c r="L127" s="75"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="P127" s="72"/>
-      <c r="Q127" s="73"/>
-      <c r="R127" s="74" t="s">
+      <c r="P127" s="75"/>
+      <c r="Q127" s="76"/>
+      <c r="R127" s="77" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="20"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="56" t="s">
+      <c r="B128" s="58"/>
+      <c r="C128" s="59" t="s">
         <v>441</v>
       </c>
       <c r="D128" s="26" t="s">
@@ -10724,25 +10733,25 @@
       <c r="J128" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L128" s="65" t="s">
+      <c r="L128" s="68" t="s">
         <v>443</v>
       </c>
-      <c r="M128" s="66"/>
-      <c r="N128" s="74" t="s">
+      <c r="M128" s="69"/>
+      <c r="N128" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="P128" s="65" t="s">
+      <c r="P128" s="68" t="s">
         <v>445</v>
       </c>
-      <c r="Q128" s="66"/>
-      <c r="R128" s="74" t="s">
+      <c r="Q128" s="69"/>
+      <c r="R128" s="77" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:14">
       <c r="A129" s="20"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="56" t="s">
+      <c r="B129" s="58"/>
+      <c r="C129" s="59" t="s">
         <v>446</v>
       </c>
       <c r="D129" s="26" t="s">
@@ -10763,12 +10772,12 @@
         <v>16</v>
       </c>
       <c r="M129" s="4"/>
-      <c r="N129" s="75"/>
+      <c r="N129" s="78"/>
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="20"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="56" t="s">
+      <c r="B130" s="58"/>
+      <c r="C130" s="59" t="s">
         <v>448</v>
       </c>
       <c r="D130" s="26" t="s">
@@ -10788,25 +10797,25 @@
       <c r="J130" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L130" s="67" t="s">
+      <c r="L130" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="M130" s="76"/>
-      <c r="N130" s="75" t="s">
+      <c r="M130" s="79"/>
+      <c r="N130" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="P130" s="65" t="s">
+      <c r="P130" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="Q130" s="66"/>
-      <c r="R130" s="67" t="s">
+      <c r="Q130" s="69"/>
+      <c r="R130" s="70" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="20"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="56" t="s">
+      <c r="B131" s="58"/>
+      <c r="C131" s="59" t="s">
         <v>454</v>
       </c>
       <c r="D131" s="26" t="s">
@@ -10826,25 +10835,25 @@
       <c r="J131" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L131" s="67" t="s">
+      <c r="L131" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="M131" s="77"/>
-      <c r="N131" s="75" t="s">
+      <c r="M131" s="80"/>
+      <c r="N131" s="78" t="s">
         <v>457</v>
       </c>
-      <c r="P131" s="68" t="s">
+      <c r="P131" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="Q131" s="69"/>
-      <c r="R131" s="67" t="s">
+      <c r="Q131" s="72"/>
+      <c r="R131" s="70" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="20"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="56" t="s">
+      <c r="B132" s="58"/>
+      <c r="C132" s="59" t="s">
         <v>459</v>
       </c>
       <c r="D132" s="26" t="s">
@@ -10864,19 +10873,19 @@
       <c r="J132" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L132" s="75"/>
-      <c r="M132" s="76"/>
-      <c r="N132" s="75"/>
-      <c r="P132" s="70"/>
-      <c r="Q132" s="71"/>
-      <c r="R132" s="67" t="s">
+      <c r="L132" s="78"/>
+      <c r="M132" s="79"/>
+      <c r="N132" s="78"/>
+      <c r="P132" s="73"/>
+      <c r="Q132" s="74"/>
+      <c r="R132" s="70" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="20"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="56" t="s">
+      <c r="B133" s="58"/>
+      <c r="C133" s="59" t="s">
         <v>461</v>
       </c>
       <c r="D133" s="26" t="s">
@@ -10896,23 +10905,23 @@
       <c r="J133" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L133" s="67" t="s">
+      <c r="L133" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="M133" s="77"/>
-      <c r="N133" s="75" t="s">
+      <c r="M133" s="80"/>
+      <c r="N133" s="78" t="s">
         <v>451</v>
       </c>
-      <c r="P133" s="70"/>
-      <c r="Q133" s="71"/>
-      <c r="R133" s="67" t="s">
+      <c r="P133" s="73"/>
+      <c r="Q133" s="74"/>
+      <c r="R133" s="70" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="20"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="56" t="s">
+      <c r="B134" s="58"/>
+      <c r="C134" s="59" t="s">
         <v>463</v>
       </c>
       <c r="D134" s="26" t="s">
@@ -10932,23 +10941,23 @@
       <c r="J134" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L134" s="67" t="s">
+      <c r="L134" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="M134" s="77"/>
-      <c r="N134" s="78" t="s">
+      <c r="M134" s="80"/>
+      <c r="N134" s="81" t="s">
         <v>466</v>
       </c>
-      <c r="P134" s="72"/>
-      <c r="Q134" s="73"/>
-      <c r="R134" s="74" t="s">
+      <c r="P134" s="75"/>
+      <c r="Q134" s="76"/>
+      <c r="R134" s="77" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="135" ht="14.4" customHeight="1" spans="1:18">
       <c r="A135" s="20"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="56" t="s">
+      <c r="B135" s="58"/>
+      <c r="C135" s="59" t="s">
         <v>463</v>
       </c>
       <c r="D135" s="26" t="s">
@@ -10968,11 +10977,11 @@
       <c r="J135" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P135" s="65" t="s">
+      <c r="P135" s="68" t="s">
         <v>468</v>
       </c>
-      <c r="Q135" s="66"/>
-      <c r="R135" s="74" t="s">
+      <c r="Q135" s="69"/>
+      <c r="R135" s="77" t="s">
         <v>444</v>
       </c>
     </row>

--- a/项目/中餐厅设备点检/博智林店中餐厅设备IP地址需求表V1.1 200418 .xlsx
+++ b/项目/中餐厅设备点检/博智林店中餐厅设备IP地址需求表V1.1 200418 .xlsx
@@ -4132,8 +4132,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -4190,7 +4190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4205,45 +4205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4257,46 +4219,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4318,10 +4242,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4424,13 +4424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4442,13 +4442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4466,13 +4478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4484,13 +4502,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4502,31 +4550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4538,37 +4568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4733,11 +4733,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4753,26 +4774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4795,38 +4807,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4836,10 +4836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4848,89 +4848,89 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4939,40 +4939,40 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5528,8 +5528,8 @@
   <sheetPr/>
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104:E104"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124:M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
